--- a/Linux/DeviceDrivers/Document(important)/13.I2C设备.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/13.I2C设备.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D9096F-2338-4D8C-B58E-97725E8B180B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA27C99-9B73-4321-8C4D-7B35E2A8FD24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i2c_hc" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
   <si>
     <t>.h相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -861,22 +861,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>i2c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>初始化过程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i2c_add_driver(&amp;dummy_driver)</t>
   </si>
   <si>
@@ -1073,7 +1057,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ss</t>
+    <t>include/linux/i2c.h
+struct i2c_driver {
+    unsigned int class;
+    /* Notifies the driver that a new bus has appeared. You should avoid
+     * using this, it will be removed in a near future.
+     */
+    int (*attach_adapter)(struct i2c_adapter *) __deprecated;
+    /* Standard driver model interfaces */
+    int (*probe)(struct i2c_client *, const struct i2c_device_id *);
+    int (*remove)(struct i2c_client *);
+    /* driver model interfaces that don't relate to enumeration  */
+    void (*shutdown)(struct i2c_client *);
+    /* Alert callback, for example for the SMBus alert protocol.
+     * The format and meaning of the data value depends on the protocol.
+     * For the SMBus alert protocol, there is a single bit of data passed
+     * as the alert response's low bit ("event flag").
+     */
+    void (*alert)(struct i2c_client *, unsigned int data);
+    /* a ioctl like command that can be used to perform specific functions
+     * with the device.
+     */
+    int (*command)(struct i2c_client *client, unsigned int cmd, void *arg);
+    struct device_driver driver;
+    const struct i2c_device_id *id_table;
+    /* Device detection callback for automatic device creation */
+    int (*detect)(struct i2c_client *, struct i2c_board_info *);
+    const unsigned short *address_list;
+    struct list_head clients;
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct i2c_board_info {
+    char                  type[I2C_NAME_SIZE];
+    unsigned short        flags;
+    unsigned short        addr;
+    void                  *platform_data;
+    struct dev_archdata   *archdata;
+    struct device_node    *of_node;
+    struct fwnode_handle  *fwnode;
+    int                   irq;
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c_board_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i2c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子系统初始化过程</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1546,17 +1591,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1"/>
-    <col min="2" max="2" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="100.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="81.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -1576,12 +1622,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="348" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1594,14 +1640,23 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1615,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:BZ123"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1681,7 @@
   <sheetData>
     <row r="2" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -2495,7 +2550,7 @@
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="11"/>
@@ -4121,7 +4176,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -4155,7 +4210,7 @@
       <c r="AM32" s="11"/>
       <c r="AN32" s="11"/>
       <c r="AO32" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP32" s="11"/>
       <c r="AQ32" s="11"/>
@@ -6700,7 +6755,7 @@
     </row>
     <row r="64" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -6781,7 +6836,7 @@
     </row>
     <row r="65" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -6862,7 +6917,7 @@
     </row>
     <row r="66" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -6943,7 +6998,7 @@
     </row>
     <row r="67" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -7024,7 +7079,7 @@
     </row>
     <row r="68" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -7186,7 +7241,7 @@
     </row>
     <row r="72" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -8055,7 +8110,7 @@
       <c r="AM82" s="11"/>
       <c r="AN82" s="11"/>
       <c r="AO82" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP82" s="11"/>
       <c r="AQ82" s="11"/>
@@ -8103,7 +8158,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
@@ -8138,7 +8193,7 @@
       <c r="AM83" s="11"/>
       <c r="AN83" s="11"/>
       <c r="AO83" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AP83" s="11"/>
       <c r="AQ83" s="11"/>
@@ -8187,7 +8242,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
@@ -8221,7 +8276,7 @@
       <c r="AM84" s="11"/>
       <c r="AN84" s="11"/>
       <c r="AO84" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AP84" s="11"/>
       <c r="AQ84" s="11"/>
@@ -8342,7 +8397,7 @@
     </row>
     <row r="86" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -8423,7 +8478,7 @@
     </row>
     <row r="87" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -8504,7 +8559,7 @@
     </row>
     <row r="88" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -8585,7 +8640,7 @@
     </row>
     <row r="89" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -8666,7 +8721,7 @@
     </row>
     <row r="90" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -8747,7 +8802,7 @@
     </row>
     <row r="91" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -8828,7 +8883,7 @@
     </row>
     <row r="92" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -8909,7 +8964,7 @@
     </row>
     <row r="93" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -9071,7 +9126,7 @@
     </row>
     <row r="95" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
